--- a/xlsx/country_comparison/field_concerns_keyword_positive.xlsx
+++ b/xlsx/country_comparison/field_concerns_keyword_positive.xlsx
@@ -610,7 +610,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.125176531817216</v>
+        <v>0.125176531817217</v>
       </c>
       <c r="C3" t="n">
         <v>0.107148852712793</v>
@@ -927,7 +927,7 @@
         <v>0.0782079351193099</v>
       </c>
       <c r="L10" t="n">
-        <v>0.168529757044321</v>
+        <v>0.16852975704432</v>
       </c>
       <c r="M10" t="n">
         <v>0.0456846491988344</v>
@@ -997,7 +997,7 @@
         <v>0.0351785904801931</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0658530967523565</v>
+        <v>0.0658530967523566</v>
       </c>
       <c r="I12" t="n">
         <v>0.143766594062975</v>
@@ -1325,7 +1325,7 @@
         <v>0.00679232240196218</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0237612954610854</v>
+        <v>0.0237612954610855</v>
       </c>
       <c r="I20" t="n">
         <v>0.0191865421347105</v>
@@ -1709,7 +1709,7 @@
         <v>0.017666725646677</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0203077773482889</v>
+        <v>0.0203077773482888</v>
       </c>
     </row>
     <row r="30">
@@ -1802,7 +1802,7 @@
         <v>0.00943545028031004</v>
       </c>
       <c r="C32" t="n">
-        <v>0.00433041499954172</v>
+        <v>0.00433041499954171</v>
       </c>
       <c r="D32" t="n">
         <v>0.0236014452955927</v>
@@ -1843,7 +1843,7 @@
         <v>0.00859964235971026</v>
       </c>
       <c r="C33" t="n">
-        <v>0.00833620050423193</v>
+        <v>0.00833620050423192</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -1908,7 +1908,7 @@
         <v>0.00619398225794238</v>
       </c>
       <c r="K34" t="n">
-        <v>0.00432815106700693</v>
+        <v>0.00432815106700694</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0.00144441463593874</v>
       </c>
       <c r="C43" t="n">
-        <v>0.00190330638367756</v>
+        <v>0.00190330638367755</v>
       </c>
       <c r="D43" t="n">
         <v>0.00488611224100887</v>

--- a/xlsx/country_comparison/field_concerns_keyword_positive.xlsx
+++ b/xlsx/country_comparison/field_concerns_keyword_positive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -47,6 +47,9 @@
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
+    <t xml:space="preserve">Russia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
@@ -56,12 +59,12 @@
     <t xml:space="preserve">Money; own income; cost of living; inflation</t>
   </si>
   <si>
+    <t xml:space="preserve">Economy</t>
+  </si>
+  <si>
     <t xml:space="preserve">Inflation; cost of living</t>
   </si>
   <si>
-    <t xml:space="preserve">Economy</t>
-  </si>
-  <si>
     <t xml:space="preserve">Own country referred</t>
   </si>
   <si>
@@ -89,12 +92,12 @@
     <t xml:space="preserve">Environment; climate change</t>
   </si>
   <si>
+    <t xml:space="preserve">International issues</t>
+  </si>
+  <si>
     <t xml:space="preserve">Trump</t>
   </si>
   <si>
-    <t xml:space="preserve">International issues</t>
-  </si>
-  <si>
     <t xml:space="preserve">Security; violence; crime; judicial system</t>
   </si>
   <si>
@@ -104,15 +107,15 @@
     <t xml:space="preserve">Tariffs</t>
   </si>
   <si>
+    <t xml:space="preserve">Old age; retirement; ageing society</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tax system; welfare benefits; public services</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rights; democracy; freedom; slavery</t>
   </si>
   <si>
-    <t xml:space="preserve">Tax system; welfare benefits; public services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Old age; retirement; ageing society</t>
-  </si>
-  <si>
     <t xml:space="preserve">Housing</t>
   </si>
   <si>
@@ -122,18 +125,18 @@
     <t xml:space="preserve">Education</t>
   </si>
   <si>
+    <t xml:space="preserve">Stability</t>
+  </si>
+  <si>
     <t xml:space="preserve">Car</t>
   </si>
   <si>
+    <t xml:space="preserve">Relationships; love; emotions</t>
+  </si>
+  <si>
     <t xml:space="preserve">Poverty; inequality</t>
   </si>
   <si>
-    <t xml:space="preserve">Stability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relationships; love; emotions</t>
-  </si>
-  <si>
     <t xml:space="preserve">Corruption; criticism of the government</t>
   </si>
   <si>
@@ -143,13 +146,13 @@
     <t xml:space="preserve">Stock; investment</t>
   </si>
   <si>
+    <t xml:space="preserve">Wage</t>
+  </si>
+  <si>
     <t xml:space="preserve">Holiday; travel</t>
   </si>
   <si>
     <t xml:space="preserve">Time; more free time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wage</t>
   </si>
   <si>
     <t xml:space="preserve">Happiness; peace of mind</t>
@@ -563,669 +566,720 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.289207345747967</v>
+        <v>0.288379413472161</v>
       </c>
       <c r="C2" t="n">
         <v>0.225696631668611</v>
       </c>
       <c r="D2" t="n">
-        <v>0.153351546640485</v>
+        <v>0.145079846297314</v>
       </c>
       <c r="E2" t="n">
-        <v>0.186179680078903</v>
+        <v>0.196016353608804</v>
       </c>
       <c r="F2" t="n">
-        <v>0.200575178688608</v>
+        <v>0.202854984153828</v>
       </c>
       <c r="G2" t="n">
-        <v>0.296005347662333</v>
+        <v>0.269277219487154</v>
       </c>
       <c r="H2" t="n">
-        <v>0.183474729568048</v>
+        <v>0.188616274175421</v>
       </c>
       <c r="I2" t="n">
-        <v>0.367475381956957</v>
+        <v>0.361764216046788</v>
       </c>
       <c r="J2" t="n">
-        <v>0.109768261896246</v>
+        <v>0.104435359600231</v>
       </c>
       <c r="K2" t="n">
-        <v>0.224370054939609</v>
+        <v>0.220648045976892</v>
       </c>
       <c r="L2" t="n">
-        <v>0.146608526001679</v>
+        <v>0.255978237447905</v>
       </c>
       <c r="M2" t="n">
-        <v>0.394829698941265</v>
+        <v>0.16226070506104</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.393384706159967</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.125176531817217</v>
+        <v>0.121543860200256</v>
       </c>
       <c r="C3" t="n">
-        <v>0.107148852712793</v>
+        <v>0.0978249455116043</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0546473595568973</v>
+        <v>0.0291330407140116</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0671603384396637</v>
+        <v>0.121603825829885</v>
       </c>
       <c r="F3" t="n">
-        <v>0.135935159572047</v>
+        <v>0.12712362829389</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0866192539949324</v>
+        <v>0.0320072635220811</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0744079919881728</v>
+        <v>0.134204578859026</v>
       </c>
       <c r="I3" t="n">
-        <v>0.217532610319429</v>
+        <v>0.113511933375592</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0433409166807765</v>
+        <v>0.0906087333219985</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0449103604450011</v>
+        <v>0.0640877233774692</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00664634264528686</v>
+        <v>0.083668819745092</v>
       </c>
       <c r="M3" t="n">
-        <v>0.183932333764685</v>
+        <v>0.0402043573399298</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.182732131794513</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.123857613240496</v>
+        <v>0.120753679108758</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0978249455116043</v>
+        <v>0.107148852712793</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0296086180065762</v>
+        <v>0.0553843489666522</v>
       </c>
       <c r="E4" t="n">
-        <v>0.128938264950074</v>
+        <v>0.0683305627359457</v>
       </c>
       <c r="F4" t="n">
-        <v>0.128661030640444</v>
+        <v>0.142176209615697</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0265858549428135</v>
+        <v>0.0785273401395503</v>
       </c>
       <c r="H4" t="n">
-        <v>0.136057758160122</v>
+        <v>0.0885938858075564</v>
       </c>
       <c r="I4" t="n">
-        <v>0.110616360669642</v>
+        <v>0.219462216873407</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0840058867067037</v>
+        <v>0.0471440314974079</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0599330991559581</v>
+        <v>0.0462317721839675</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0377920413553184</v>
+        <v>0.0741934403319602</v>
       </c>
       <c r="M4" t="n">
-        <v>0.183050637604479</v>
+        <v>0.00740077431406316</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.183436394133109</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.113834857211239</v>
+        <v>0.120210908650469</v>
       </c>
       <c r="C5" t="n">
         <v>0.112163306308629</v>
       </c>
       <c r="D5" t="n">
-        <v>0.135639101024325</v>
+        <v>0.146637987481599</v>
       </c>
       <c r="E5" t="n">
-        <v>0.121266020854518</v>
+        <v>0.115767783920506</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0818984292164657</v>
+        <v>0.0816758180031233</v>
       </c>
       <c r="G5" t="n">
-        <v>0.131125405369888</v>
+        <v>0.132731806791394</v>
       </c>
       <c r="H5" t="n">
-        <v>0.121118533557674</v>
+        <v>0.127177575636007</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0974193223499062</v>
+        <v>0.0975416847153741</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0629284876471608</v>
+        <v>0.0648209261650863</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0766760400085467</v>
+        <v>0.0775835091631349</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0563115655352132</v>
+        <v>0.267255694141762</v>
       </c>
       <c r="M5" t="n">
-        <v>0.133787718758054</v>
+        <v>0.0504125582159306</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.135955772707323</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.111027087212673</v>
+        <v>0.120064183022611</v>
       </c>
       <c r="C6" t="n">
         <v>0.144159422331531</v>
       </c>
       <c r="D6" t="n">
-        <v>0.100981870523877</v>
+        <v>0.100081267678081</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0337735156888442</v>
+        <v>0.034534112906076</v>
       </c>
       <c r="F6" t="n">
-        <v>0.188261150569737</v>
+        <v>0.187176759274302</v>
       </c>
       <c r="G6" t="n">
-        <v>0.250993855583768</v>
+        <v>0.268391484968881</v>
       </c>
       <c r="H6" t="n">
-        <v>0.202228782024089</v>
+        <v>0.203874687240686</v>
       </c>
       <c r="I6" t="n">
-        <v>0.192035115912485</v>
+        <v>0.188564775467483</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0593997705032325</v>
+        <v>0.0538372935407342</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0480496144691701</v>
+        <v>0.0456333345035573</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0767864800795894</v>
+        <v>0.285523440916766</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0999326631621072</v>
+        <v>0.0639685979437041</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.0981846015349561</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0963963467653721</v>
+        <v>0.0952743318415259</v>
       </c>
       <c r="C7" t="n">
         <v>0.151523616611173</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0954174851649919</v>
+        <v>0.101802006807433</v>
       </c>
       <c r="E7" t="n">
-        <v>0.199044221877571</v>
+        <v>0.193390080072562</v>
       </c>
       <c r="F7" t="n">
-        <v>0.310379879023084</v>
+        <v>0.322464215159323</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0974371035026305</v>
+        <v>0.105460600014629</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0579601327081892</v>
+        <v>0.050523132859124</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0779006364525749</v>
+        <v>0.0814436799059646</v>
       </c>
       <c r="J7" t="n">
-        <v>0.212251045371744</v>
+        <v>0.222377126302365</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0159546257700273</v>
+        <v>0.0160911314834801</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0727279947430217</v>
+        <v>0.124346967076323</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0664182820104357</v>
+        <v>0.0762639957689631</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.0673626200240786</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0851920676336626</v>
+        <v>0.079448691191133</v>
       </c>
       <c r="C8" t="n">
         <v>0.0595881772058803</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0707178499554576</v>
+        <v>0.0688480798710408</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0551020507961537</v>
+        <v>0.0548438219772349</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0372492556203193</v>
+        <v>0.0388887745581674</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0169885017708126</v>
+        <v>0.015968619332164</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0543314131680939</v>
+        <v>0.0579534555508758</v>
       </c>
       <c r="I8" t="n">
-        <v>0.102558385887171</v>
+        <v>0.0984374016674247</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0590216027029047</v>
+        <v>0.065455518970099</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0888818306330629</v>
+        <v>0.0891086034344721</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>0.00830966675452667</v>
       </c>
       <c r="M8" t="n">
-        <v>0.118832589995419</v>
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.115566873631271</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0792527996226015</v>
+        <v>0.0734884372759878</v>
       </c>
       <c r="C9" t="n">
         <v>0.0437448725136261</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0600231903244685</v>
+        <v>0.059802566808152</v>
       </c>
       <c r="E9" t="n">
-        <v>0.067882805595132</v>
+        <v>0.0681626378809226</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0355740330515175</v>
+        <v>0.0358381778838992</v>
       </c>
       <c r="G9" t="n">
-        <v>0.00196393994566121</v>
+        <v>0.00192307692307692</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0293196608605389</v>
+        <v>0.0325107035567697</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03707130847723</v>
+        <v>0.0326718534820084</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0590216027029047</v>
+        <v>0.065455518970099</v>
       </c>
       <c r="K9" t="n">
-        <v>0.102603113422269</v>
+        <v>0.105451919435748</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.11622524952245</v>
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.111820231866972</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0654525107180608</v>
+        <v>0.0697410510650365</v>
       </c>
       <c r="C10" t="n">
         <v>0.0719639431832682</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0825483426376479</v>
+        <v>0.0866070886456633</v>
       </c>
       <c r="E10" t="n">
-        <v>0.013321209477062</v>
+        <v>0.0112783991232658</v>
       </c>
       <c r="F10" t="n">
-        <v>0.084284468412146</v>
+        <v>0.0793618011766004</v>
       </c>
       <c r="G10" t="n">
-        <v>0.103745024642616</v>
+        <v>0.124957268663364</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0748365241601984</v>
+        <v>0.069656026087753</v>
       </c>
       <c r="I10" t="n">
-        <v>0.107063108058636</v>
+        <v>0.109460566235559</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0360246983579144</v>
+        <v>0.0587863874111544</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0782079351193099</v>
+        <v>0.0761395213797869</v>
       </c>
       <c r="L10" t="n">
-        <v>0.16852975704432</v>
+        <v>0.110800728259081</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0456846491988344</v>
+        <v>0.17376661305829</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.044047979095608</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0644960214435003</v>
+        <v>0.063522835122303</v>
       </c>
       <c r="C11" t="n">
         <v>0.0742838806511377</v>
       </c>
       <c r="D11" t="n">
-        <v>0.119593033644118</v>
+        <v>0.0983057254443129</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0527361678980397</v>
+        <v>0.0498639680533955</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0772422353210715</v>
+        <v>0.0754933540029559</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0381321232172716</v>
+        <v>0.037550626475716</v>
       </c>
       <c r="H11" t="n">
-        <v>0.115670101394708</v>
+        <v>0.128439070435196</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0531673313916264</v>
+        <v>0.0529564511686208</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0374744241666657</v>
+        <v>0.0287672080516485</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0406068135704183</v>
+        <v>0.0426652652822854</v>
       </c>
       <c r="L11" t="n">
-        <v>0.130048601693197</v>
+        <v>0.0412076378442876</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0574590899752513</v>
+        <v>0.125451671378009</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.05664822306151</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0637482215778387</v>
+        <v>0.0604122219732084</v>
       </c>
       <c r="C12" t="n">
         <v>0.0904551237331086</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0571096359244344</v>
+        <v>0.0544117739267413</v>
       </c>
       <c r="E12" t="n">
-        <v>0.133885148170647</v>
+        <v>0.138128215981663</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0626569864151614</v>
+        <v>0.0678845819201463</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0351785904801931</v>
+        <v>0.0408477862307504</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0658530967523566</v>
+        <v>0.069915541077758</v>
       </c>
       <c r="I12" t="n">
-        <v>0.143766594062975</v>
+        <v>0.141632765803873</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0656518497526006</v>
+        <v>0.0825566394352984</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>0.0139137259293706</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0623374172549776</v>
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.0609259860521369</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0582487217307178</v>
+        <v>0.0539341033988293</v>
       </c>
       <c r="C13" t="n">
         <v>0.0955660589059805</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0632671576533697</v>
+        <v>0.0648640340565218</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0776207600673624</v>
+        <v>0.0730463418948756</v>
       </c>
       <c r="F13" t="n">
-        <v>0.173545599184375</v>
+        <v>0.16709040063352</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0362802110756362</v>
+        <v>0.041061598857694</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0968999732900201</v>
+        <v>0.0990726885216718</v>
       </c>
       <c r="I13" t="n">
-        <v>0.108045696968734</v>
+        <v>0.114114804165951</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0743566564594674</v>
+        <v>0.0928926124975377</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0119750512134939</v>
+        <v>0.0118629359881063</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0670784889650736</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0330535864668505</v>
+        <v>0.0645214419423394</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.0341502983929805</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0548677487566511</v>
+        <v>0.053904985222196</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0300745682045662</v>
+        <v>0.0723347218529775</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0543103076183143</v>
+        <v>0.113272141055811</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0409941638415613</v>
+        <v>0.0776249560615661</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0210907829654334</v>
+        <v>0.0865713497647689</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.0639314496063022</v>
       </c>
       <c r="H14" t="n">
-        <v>0.00372601402585644</v>
+        <v>0.0622502717110266</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0324797212215035</v>
+        <v>0.0326644458429982</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0590216027029047</v>
+        <v>0.0724533977429755</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0806827403948364</v>
+        <v>0.0191059229787367</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>0.0815636717645623</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0771303374472092</v>
+        <v>0.065479700894486</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.0468200253524945</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0535963946382965</v>
+        <v>0.0508848025084718</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0723347218529775</v>
+        <v>0.0300745682045662</v>
       </c>
       <c r="D15" t="n">
-        <v>0.106021652022361</v>
+        <v>0.0540988163869712</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0811549477412057</v>
+        <v>0.0424589272588222</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0800534991959816</v>
+        <v>0.0200774830458584</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0624173629791647</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0647650586998836</v>
+        <v>0.00375762065204326</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0325834530562322</v>
+        <v>0.0270860061296397</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0762499177706134</v>
+        <v>0.065455518970099</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0180450275182864</v>
+        <v>0.081281780233907</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0605435852763047</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0453103909027533</v>
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.073950451103844</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0454212382824663</v>
+        <v>0.0426812718017225</v>
       </c>
       <c r="C16" t="n">
         <v>0.0396212827304794</v>
       </c>
       <c r="D16" t="n">
-        <v>0.020845743970384</v>
+        <v>0.0153159838416035</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0307325484737887</v>
+        <v>0.0316085683695362</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0604560619950593</v>
+        <v>0.0597339058000708</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0383403169341358</v>
+        <v>0.0368697925652667</v>
       </c>
       <c r="I16" t="n">
-        <v>0.07229648708258</v>
+        <v>0.0711182887128124</v>
       </c>
       <c r="J16" t="n">
-        <v>0.027304716900981</v>
+        <v>0.0357660976234718</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0141545430567973</v>
+        <v>0.0140004385065891</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0148523022368118</v>
+        <v>0.00947009518910931</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0657663572936963</v>
+        <v>0.0117784484235133</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.0634456677401719</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0388941224242083</v>
+        <v>0.0389085836518293</v>
       </c>
       <c r="C17" t="n">
         <v>0.052131461543119</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0400951231052046</v>
+        <v>0.0430327597689814</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0700893353102571</v>
+        <v>0.0702992560248176</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0252490749176611</v>
+        <v>0.0239266837238128</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0432229988285716</v>
+        <v>0.0416521999996154</v>
       </c>
       <c r="H17" t="n">
-        <v>0.112702251855354</v>
+        <v>0.109186301200589</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0342548431744628</v>
+        <v>0.0391735944524037</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0418245458876861</v>
+        <v>0.0392255332458776</v>
       </c>
       <c r="K17" t="n">
-        <v>0.014280763115684</v>
+        <v>0.015134695147502</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0151281675490739</v>
+        <v>0.057077199356117</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0350205211938906</v>
+        <v>0.0153129276800632</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.0350384910442044</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0326645360493705</v>
+        <v>0.0302774685723039</v>
       </c>
       <c r="C18" t="n">
         <v>0.00579531311053629</v>
@@ -1237,446 +1291,479 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0225951396519827</v>
+        <v>0.0219192392199579</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0108683240059267</v>
+        <v>0.0107614765935225</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0256181545350457</v>
+        <v>0.0264292816566761</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0890182599326407</v>
+        <v>0.0913639076511507</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0442719999166826</v>
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.0427087198363818</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0315004621429036</v>
+        <v>0.0297864561632142</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0149972644847297</v>
+        <v>0.0248181532865738</v>
       </c>
       <c r="D19" t="n">
-        <v>0.00488739302561114</v>
+        <v>0.0487406606068072</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0207507949263296</v>
+        <v>0.0167112920813676</v>
       </c>
       <c r="F19" t="n">
-        <v>0.00852259136150892</v>
+        <v>0.0133461693884552</v>
       </c>
       <c r="G19" t="n">
-        <v>0.00745335747557823</v>
+        <v>0.0172896830881258</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0169599979540591</v>
+        <v>0.00856625382237797</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0281846500540693</v>
+        <v>0.0354623579926801</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.022119105716767</v>
       </c>
       <c r="K19" t="n">
-        <v>0.00192917664885006</v>
+        <v>0.0684270230244954</v>
       </c>
       <c r="L19" t="n">
-        <v>0.00262824406896382</v>
+        <v>0.0279671834712919</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0630343862645882</v>
+        <v>0.00350397068476503</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.0232854867326636</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0314820720807898</v>
+        <v>0.0292440499139159</v>
       </c>
       <c r="C20" t="n">
         <v>0.0186735004216984</v>
       </c>
       <c r="D20" t="n">
-        <v>0.019281285921252</v>
+        <v>0.0231622940922753</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0139835981302455</v>
+        <v>0.0156825750632326</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0293596543498427</v>
+        <v>0.0346724126765207</v>
       </c>
       <c r="G20" t="n">
-        <v>0.00679232240196218</v>
+        <v>0.0049073943291435</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0237612954610855</v>
+        <v>0.0263364381131236</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0191865421347105</v>
+        <v>0.0204414196989919</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0542565704287869</v>
+        <v>0.057667672963849</v>
       </c>
       <c r="L20" t="n">
-        <v>0.00324823699559777</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0394840702844968</v>
+        <v>0.00247463011367962</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.0395892886489872</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0302358975222953</v>
+        <v>0.0291682335035905</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0248181532865738</v>
+        <v>0.0149972644847297</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0469608357197044</v>
+        <v>0.00461983071209413</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0175263558329416</v>
+        <v>0.0224363358716931</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0139652304699991</v>
+        <v>0.00830199376216641</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0238792717015621</v>
+        <v>0.00958569608766537</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0091468289176701</v>
+        <v>0.0139586127310719</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0346312560815525</v>
+        <v>0.0297081216401005</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0179962922418577</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.068036533488753</v>
+        <v>0.00147530427424936</v>
       </c>
       <c r="L21" t="n">
-        <v>0.00462512723773884</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0242345954559436</v>
+        <v>0.00247033880076633</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.0613778244217231</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0253086363960093</v>
+        <v>0.0263225425057858</v>
       </c>
       <c r="C22" t="n">
         <v>0.0266762594579811</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0101131646756508</v>
+        <v>0.00813581746973377</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0166086266543555</v>
+        <v>0.0173200728662398</v>
       </c>
       <c r="F22" t="n">
-        <v>0.00402922669783258</v>
+        <v>0.00309827467715866</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0160238695045483</v>
+        <v>0.0175096844037636</v>
       </c>
       <c r="H22" t="n">
-        <v>0.108189237739183</v>
+        <v>0.114186989464776</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0311112299560725</v>
+        <v>0.0311184497720849</v>
       </c>
       <c r="J22" t="n">
-        <v>0.014079063255269</v>
+        <v>0.0127626058815217</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0118559600585008</v>
+        <v>0.0112776981480921</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0054323386191658</v>
+        <v>0.0144984311388211</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0302590778429226</v>
+        <v>0.00739317976590551</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.0312934541244501</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0206495617038579</v>
+        <v>0.0211489546764277</v>
       </c>
       <c r="C23" t="n">
         <v>0.0224339874020708</v>
       </c>
       <c r="D23" t="n">
-        <v>0.029026327386584</v>
+        <v>0.032429789172551</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0357224086799975</v>
+        <v>0.0354546001411635</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0214365127201326</v>
+        <v>0.0217770349278578</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0359033656165903</v>
+        <v>0.0395234109976004</v>
       </c>
       <c r="I23" t="n">
-        <v>0.00509838810052018</v>
+        <v>0.00390389155818829</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0187342535955115</v>
+        <v>0.0151668384924855</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0632840481786277</v>
+        <v>0.0640268258313086</v>
       </c>
       <c r="L23" t="n">
-        <v>0.00574846801000526</v>
+        <v>0.00635593220338983</v>
       </c>
       <c r="M23" t="n">
-        <v>0.00401458538511615</v>
+        <v>0.00461237333330672</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.00485375235334099</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0192216122063912</v>
+        <v>0.0206710416917634</v>
       </c>
       <c r="C24" t="n">
         <v>0.0196837537441796</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0210537259838807</v>
+        <v>0.0182524677661447</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0202308642794713</v>
+        <v>0.0190783171773221</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0082221875491691</v>
+        <v>0.0088034747635748</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0578488859836889</v>
+        <v>0.0610540047534814</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0163129793372798</v>
+        <v>0.0227761038083329</v>
       </c>
       <c r="J24" t="n">
-        <v>0.00829917715662928</v>
+        <v>0.00615537143247198</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0162560046662671</v>
+        <v>0.0160384531819767</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0601534502561839</v>
+        <v>0.0287215530093533</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0167118179968488</v>
+        <v>0.0613354638950244</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.0176125532277882</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0183658933287749</v>
+        <v>0.0172665357178672</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0148942255458094</v>
+        <v>0.0159333959100541</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>0.0205946110505611</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0186228623781232</v>
+        <v>0.00837981410655962</v>
       </c>
       <c r="F25" t="n">
-        <v>0.014549278278006</v>
+        <v>0.0291308088870617</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.0253295139939512</v>
       </c>
       <c r="H25" t="n">
-        <v>0.00523303970566965</v>
+        <v>0.0202261261326769</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0393623583843835</v>
+        <v>0.0100662507791553</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0111054640979296</v>
+        <v>0.00643061835170371</v>
       </c>
       <c r="K25" t="n">
-        <v>0.014119631623206</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0.035883290475461</v>
+        <v>0.0679638854232698</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0224877288925429</v>
+        <v>0.0351131586094073</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.0182593569883162</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0158323094967204</v>
+        <v>0.0170514284493974</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0230316571492459</v>
+        <v>0.0148942255458094</v>
       </c>
       <c r="D26" t="n">
-        <v>0.00900891414022172</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0222217397460435</v>
+        <v>0.0181920630708941</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0130777975626419</v>
+        <v>0.0126510092735392</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0177358209462628</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0147179785413572</v>
+        <v>0.00643024127087358</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0562543425157864</v>
+        <v>0.0411684052619866</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0102973849633843</v>
+        <v>0.0304577283714172</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>0.0136628394741671</v>
       </c>
       <c r="L26" t="n">
-        <v>0.00219395787049115</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0146840746885953</v>
+        <v>0.0438070213866475</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.0241780275664479</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0142923947465099</v>
+        <v>0.0168060007069874</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0159333959100541</v>
+        <v>0.0170285819206672</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0157459595853146</v>
+        <v>0.0155337387791961</v>
       </c>
       <c r="E27" t="n">
-        <v>0.00932776240605153</v>
+        <v>0.0174575285533282</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0229350543988813</v>
+        <v>0.00735153288569275</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0297633037010748</v>
+        <v>0.025635558905559</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0166828580223208</v>
+        <v>0.0385744449004635</v>
       </c>
       <c r="I27" t="n">
-        <v>0.00965506178111755</v>
+        <v>0.00771853324990772</v>
       </c>
       <c r="J27" t="n">
-        <v>0.0146405589695143</v>
+        <v>0.0122298243633423</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>0.00190950328187645</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0308564801081069</v>
+        <v>0.0570453832903678</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0164965689059366</v>
+        <v>0.0054753809624018</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.014154099024401</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0138191504268116</v>
+        <v>0.0153104338317255</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0170285819206672</v>
+        <v>0.0230316571492459</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0147121391346875</v>
+        <v>0.0081453932497154</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0174391391519237</v>
+        <v>0.0209485848141453</v>
       </c>
       <c r="F28" t="n">
-        <v>0.00853134751970254</v>
+        <v>0.0136374799305638</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0217382954075257</v>
+        <v>0.0135289158838382</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0402411001087261</v>
+        <v>0.0129605749371389</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0102197340449496</v>
+        <v>0.0680262512468253</v>
       </c>
       <c r="J28" t="n">
-        <v>0.00936278597835676</v>
+        <v>0.0151355401324396</v>
       </c>
       <c r="K28" t="n">
-        <v>0.00195287820495328</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0.00682576144968234</v>
+        <v>0.00947009518910931</v>
       </c>
       <c r="M28" t="n">
-        <v>0.015154673841586</v>
+        <v>0.00324257839634198</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.0151752553654414</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0121058821487442</v>
+        <v>0.0119499894301224</v>
       </c>
       <c r="C29" t="n">
         <v>0.00839210229336857</v>
@@ -1685,16 +1772,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.00261663048273555</v>
+        <v>0.00182048656324062</v>
       </c>
       <c r="F29" t="n">
-        <v>0.00397134571266689</v>
+        <v>0.00466932886920879</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0601294605140763</v>
+        <v>0.051888653456661</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -1706,42 +1793,45 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0.017666725646677</v>
+        <v>0.00803937066612635</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0203077773482888</v>
+        <v>0.0175438596491228</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.0200311388397128</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0119489537935163</v>
+        <v>0.0111394500447714</v>
       </c>
       <c r="C30" t="n">
         <v>0.0141395136350753</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0106186438145849</v>
+        <v>0.00933112396625323</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0211303454906433</v>
+        <v>0.0217768207908852</v>
       </c>
       <c r="F30" t="n">
-        <v>0.00828252191104914</v>
+        <v>0.0102080063756301</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.00638709336146088</v>
+        <v>0.00594213582483793</v>
       </c>
       <c r="I30" t="n">
-        <v>0.0281883829392863</v>
+        <v>0.0322729726869607</v>
       </c>
       <c r="J30" t="n">
-        <v>0.00512992950051525</v>
+        <v>0.00251549118377848</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -1750,15 +1840,18 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0148262584878247</v>
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.0153830377036587</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0104926491841224</v>
+        <v>0.00973543189207977</v>
       </c>
       <c r="C31" t="n">
         <v>0.00347220409480199</v>
@@ -1767,174 +1860,186 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.00282932620263572</v>
+        <v>0.00254999394286911</v>
       </c>
       <c r="F31" t="n">
-        <v>0.00308787582158255</v>
+        <v>0.00276929103283233</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0114189022536641</v>
+        <v>0.00918166224135743</v>
       </c>
       <c r="I31" t="n">
-        <v>0.00509955431704004</v>
+        <v>0.00472543167816378</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0344391732527122</v>
+        <v>0.0355235975422605</v>
       </c>
       <c r="L31" t="n">
-        <v>0.0341387290707638</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0.00768436094717808</v>
+        <v>0.0298058978087509</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.00767727510577714</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B32" t="n">
-        <v>0.00943545028031004</v>
+        <v>0.00925374376064771</v>
       </c>
       <c r="C32" t="n">
-        <v>0.00433041499954171</v>
+        <v>0.012548586874119</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0236014452955927</v>
+        <v>0.0157944848613574</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>0.00830977697872227</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>0.0135484147576731</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.012219686665336</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>0.026342336952799</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0115191916349612</v>
+        <v>0.00407288886196084</v>
       </c>
       <c r="K32" t="n">
-        <v>0.022576719994951</v>
+        <v>0.00483714311856488</v>
       </c>
       <c r="L32" t="n">
-        <v>0.0713754000389068</v>
+        <v>0.0440910133115363</v>
       </c>
       <c r="M32" t="n">
-        <v>0.00559443587001965</v>
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.00217627318513592</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B33" t="n">
-        <v>0.00859964235971026</v>
+        <v>0.00872289310468024</v>
       </c>
       <c r="C33" t="n">
-        <v>0.00833620050423192</v>
+        <v>0.00433041499954171</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>0.0294504702236502</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0059113346692706</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.00482985682824736</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.00608835708694164</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0167627352800356</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.0192351971820563</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.0104396418921809</v>
       </c>
       <c r="K33" t="n">
-        <v>0.00407728628918614</v>
+        <v>0.0219862553968125</v>
       </c>
       <c r="L33" t="n">
-        <v>0.0167827374760945</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.00994833527901753</v>
+        <v>0.066724401931587</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.00564395150872403</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B34" t="n">
-        <v>0.00700397490069408</v>
+        <v>0.00845646421419752</v>
       </c>
       <c r="C34" t="n">
-        <v>0.012548586874119</v>
+        <v>0.00833620050423193</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0199819219045863</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.00736886653183652</v>
+        <v>0.00607980452744967</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0134484912220839</v>
+        <v>0.00457029849250544</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0162442016868181</v>
+        <v>0.00596716718848516</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0278919458769614</v>
+        <v>0.0142061873348578</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>0.0193171294527515</v>
       </c>
       <c r="J34" t="n">
-        <v>0.00619398225794238</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0.00432815106700694</v>
+        <v>0.00470165570848248</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>0.00211864406779661</v>
       </c>
       <c r="M34" t="n">
-        <v>0.00233520238248685</v>
+        <v>0.0139488348836723</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.00893378150929133</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B35" t="n">
-        <v>0.00672527334300826</v>
+        <v>0.00622609020063877</v>
       </c>
       <c r="C35" t="n">
         <v>0.00733796390632559</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0101632040091259</v>
+        <v>0.0103826440230642</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0134807595387894</v>
+        <v>0.0133285655215185</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1943,33 +2048,36 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0174267981812121</v>
+        <v>0.0159603758267441</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0.002077141649684</v>
+        <v>0.00184915021525087</v>
       </c>
       <c r="L35" t="n">
-        <v>0.00110417035291731</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0.00818520699852854</v>
+        <v>0.00109649122807018</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.00760564182797662</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B36" t="n">
-        <v>0.00578825286784761</v>
+        <v>0.00535531189030506</v>
       </c>
       <c r="C36" t="n">
         <v>0.00337426671767166</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0145969516349205</v>
+        <v>0.0169801272158374</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -1984,48 +2092,51 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.00460266636691059</v>
+        <v>0.00360277170990587</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0.006047733741408</v>
+        <v>0.0059644020227683</v>
       </c>
       <c r="L36" t="n">
-        <v>0.0636572366255448</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0.00401615418390646</v>
+        <v>0.0562138167586376</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.00406274649895387</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B37" t="n">
-        <v>0.00483315498331724</v>
+        <v>0.00509618766941721</v>
       </c>
       <c r="C37" t="n">
         <v>0.00771702933052079</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0103444666496883</v>
+        <v>0.0110171556538875</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.00408814687582451</v>
+        <v>0.00393531195888037</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0156506926749156</v>
+        <v>0.0151585555555473</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0181902468161215</v>
+        <v>0.0168766416882028</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -2034,39 +2145,42 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>0.0231780167100826</v>
       </c>
       <c r="M37" t="n">
-        <v>0.00376755249400827</v>
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.00328133089365415</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0047842905222035</v>
+        <v>0.00507939909296839</v>
       </c>
       <c r="C38" t="n">
         <v>0.00611634972393195</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0111484832725187</v>
+        <v>0.0104566817679414</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.00521033040644049</v>
+        <v>0.00509686532206099</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.00889386256446074</v>
+        <v>0.00801195047749963</v>
       </c>
       <c r="I38" t="n">
-        <v>0.012040344251986</v>
+        <v>0.0130001927093548</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -2075,30 +2189,33 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0.00548237425753887</v>
+        <v>0.00803937066612635</v>
       </c>
       <c r="M38" t="n">
-        <v>0.00501463321455858</v>
+        <v>0.00382357184868838</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.00576544160821111</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B39" t="n">
-        <v>0.00446385545993198</v>
+        <v>0.00413263749085841</v>
       </c>
       <c r="C39" t="n">
         <v>0.00743829228594512</v>
       </c>
       <c r="D39" t="n">
-        <v>0.011532533936061</v>
+        <v>0.0158135659892763</v>
       </c>
       <c r="E39" t="n">
-        <v>0.00347686392757623</v>
+        <v>0.00342315440968606</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0100489897914405</v>
+        <v>0.0106866509989734</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -2107,27 +2224,30 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.0147889797604202</v>
+        <v>0.0160120217705133</v>
       </c>
       <c r="J39" t="n">
-        <v>0.0076221896362442</v>
+        <v>0.0110407474365773</v>
       </c>
       <c r="K39" t="n">
-        <v>0.00617091251507307</v>
+        <v>0.00604174625983524</v>
       </c>
       <c r="L39" t="n">
-        <v>0.011260326600103</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
+        <v>0.0123579557030855</v>
+      </c>
+      <c r="N39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B40" t="n">
-        <v>0.00217394408556161</v>
+        <v>0.00201326242470783</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -2160,24 +2280,27 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0.00556812708106027</v>
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.00480927543363627</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B41" t="n">
-        <v>0.00201977875899944</v>
+        <v>0.0018695854399265</v>
       </c>
       <c r="C41" t="n">
         <v>0.00348084472709146</v>
       </c>
       <c r="D41" t="n">
-        <v>0.00488611224100887</v>
+        <v>0.00262346915050827</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0116658027983155</v>
+        <v>0.0110891242529775</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -2198,18 +2321,21 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0.00110417035291731</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0.00120552483166439</v>
+        <v>0.00157888227757434</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.00129220886733752</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B42" t="n">
-        <v>0.00197850854535344</v>
+        <v>0.00183124899999241</v>
       </c>
       <c r="C42" t="n">
         <v>0.000877871072625011</v>
@@ -2218,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0038846240168766</v>
+        <v>0.00395867887098061</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -2239,27 +2365,30 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0.017666725646677</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0.00275382549948263</v>
+        <v>0.0175438596491228</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.00280522381408514</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B43" t="n">
-        <v>0.00144441463593874</v>
+        <v>0.00133677014634998</v>
       </c>
       <c r="C43" t="n">
-        <v>0.00190330638367755</v>
+        <v>0.00190330638367756</v>
       </c>
       <c r="D43" t="n">
-        <v>0.00488611224100887</v>
+        <v>0.00262346915050827</v>
       </c>
       <c r="E43" t="n">
-        <v>0.00468511562514664</v>
+        <v>0.00418582391875338</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -2280,30 +2409,33 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0.0049012041222593</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.00120552483166439</v>
+        <v>0.00379548062226024</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.00129220886733752</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B44" t="n">
-        <v>0.00132841990951965</v>
+        <v>0.0012301817505033</v>
       </c>
       <c r="C44" t="n">
         <v>0.00304902942842725</v>
       </c>
       <c r="D44" t="n">
-        <v>0.00492243385315486</v>
+        <v>0.0049820909975361</v>
       </c>
       <c r="E44" t="n">
-        <v>0.006036667099986</v>
+        <v>0.00595401029481164</v>
       </c>
       <c r="F44" t="n">
-        <v>0.00476767611359889</v>
+        <v>0.00371315239695175</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -2324,15 +2456,18 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B45" t="n">
-        <v>0.00111369564265765</v>
+        <v>0.00106090334003337</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -2365,15 +2500,18 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0.00285251074722967</v>
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.00339596532760949</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B46" t="n">
-        <v>0.00111369564265765</v>
+        <v>0.00106090334003337</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -2406,15 +2544,18 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.00285251074722967</v>
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.00339596532760949</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B47" t="n">
-        <v>0.000953555553730966</v>
+        <v>0.000883039039000151</v>
       </c>
       <c r="C47" t="n">
         <v>0.00180424381609459</v>
@@ -2435,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0.0097552182793875</v>
+        <v>0.00844136352317178</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
@@ -2444,18 +2585,21 @@
         <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>0.00568029647033918</v>
+        <v>0</v>
       </c>
       <c r="M47" t="n">
+        <v>0.00696789402509717</v>
+      </c>
+      <c r="N47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B48" t="n">
-        <v>0.000853464276550718</v>
+        <v>0.000791880774404959</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -2482,12 +2626,15 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>0.00591023264083647</v>
+        <v>0.00563502973032289</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
       </c>
       <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
         <v>0</v>
       </c>
     </row>

--- a/xlsx/country_comparison/field_concerns_keyword_positive.xlsx
+++ b/xlsx/country_comparison/field_concerns_keyword_positive.xlsx
@@ -119,10 +119,10 @@
     <t xml:space="preserve">Housing</t>
   </si>
   <si>
+    <t xml:space="preserve">Education</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nothing; don't know; empty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Education</t>
   </si>
   <si>
     <t xml:space="preserve">Stability</t>
@@ -575,7 +575,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.288379413472161</v>
+        <v>0.288602254068036</v>
       </c>
       <c r="C2" t="n">
         <v>0.225696631668611</v>
@@ -605,7 +605,7 @@
         <v>0.220648045976892</v>
       </c>
       <c r="L2" t="n">
-        <v>0.255978237447905</v>
+        <v>0.256470409182717</v>
       </c>
       <c r="M2" t="n">
         <v>0.16226070506104</v>
@@ -619,7 +619,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.121543860200256</v>
+        <v>0.121669824607341</v>
       </c>
       <c r="C3" t="n">
         <v>0.0978249455116043</v>
@@ -649,7 +649,7 @@
         <v>0.0640877233774692</v>
       </c>
       <c r="L3" t="n">
-        <v>0.083668819745092</v>
+        <v>0.0837834685235709</v>
       </c>
       <c r="M3" t="n">
         <v>0.0402043573399298</v>
@@ -663,7 +663,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.120753679108758</v>
+        <v>0.120833344367493</v>
       </c>
       <c r="C4" t="n">
         <v>0.107148852712793</v>
@@ -693,7 +693,7 @@
         <v>0.0462317721839675</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0741934403319602</v>
+        <v>0.0742699457960542</v>
       </c>
       <c r="M4" t="n">
         <v>0.00740077431406316</v>
@@ -707,7 +707,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.120210908650469</v>
+        <v>0.120389085503789</v>
       </c>
       <c r="C5" t="n">
         <v>0.112163306308629</v>
@@ -737,7 +737,7 @@
         <v>0.0775835091631349</v>
       </c>
       <c r="L5" t="n">
-        <v>0.267255694141762</v>
+        <v>0.267963612801303</v>
       </c>
       <c r="M5" t="n">
         <v>0.0504125582159306</v>
@@ -751,7 +751,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.120064183022611</v>
+        <v>0.120184153459867</v>
       </c>
       <c r="C6" t="n">
         <v>0.144159422331531</v>
@@ -781,7 +781,7 @@
         <v>0.0456333345035573</v>
       </c>
       <c r="L6" t="n">
-        <v>0.285523440916766</v>
+        <v>0.285935356678167</v>
       </c>
       <c r="M6" t="n">
         <v>0.0639685979437041</v>
@@ -795,7 +795,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0952743318415259</v>
+        <v>0.0952935613072265</v>
       </c>
       <c r="C7" t="n">
         <v>0.151523616611173</v>
@@ -825,7 +825,7 @@
         <v>0.0160911314834801</v>
       </c>
       <c r="L7" t="n">
-        <v>0.124346967076323</v>
+        <v>0.124618910276095</v>
       </c>
       <c r="M7" t="n">
         <v>0.0762639957689631</v>
@@ -839,7 +839,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.079448691191133</v>
+        <v>0.0794735282239128</v>
       </c>
       <c r="C8" t="n">
         <v>0.0595881772058803</v>
@@ -869,7 +869,7 @@
         <v>0.0891086034344721</v>
       </c>
       <c r="L8" t="n">
-        <v>0.00830966675452667</v>
+        <v>0.0083177492120678</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0734884372759878</v>
+        <v>0.0735093679559291</v>
       </c>
       <c r="C9" t="n">
         <v>0.0437448725136261</v>
@@ -927,7 +927,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0697410510650365</v>
+        <v>0.0698768763127664</v>
       </c>
       <c r="C10" t="n">
         <v>0.0719639431832682</v>
@@ -957,7 +957,7 @@
         <v>0.0761395213797869</v>
       </c>
       <c r="L10" t="n">
-        <v>0.110800728259081</v>
+        <v>0.111081482769912</v>
       </c>
       <c r="M10" t="n">
         <v>0.17376661305829</v>
@@ -971,7 +971,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.063522835122303</v>
+        <v>0.0635424288770414</v>
       </c>
       <c r="C11" t="n">
         <v>0.0742838806511377</v>
@@ -1001,7 +1001,7 @@
         <v>0.0426652652822854</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0412076378442876</v>
+        <v>0.0412759090274652</v>
       </c>
       <c r="M11" t="n">
         <v>0.125451671378009</v>
@@ -1015,7 +1015,7 @@
         <v>24</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0604122219732084</v>
+        <v>0.0604260895086438</v>
       </c>
       <c r="C12" t="n">
         <v>0.0904551237331086</v>
@@ -1045,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0139137259293706</v>
+        <v>0.0139423840542105</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>25</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0539341033988293</v>
+        <v>0.0539494646923607</v>
       </c>
       <c r="C13" t="n">
         <v>0.0955660589059805</v>
@@ -1103,7 +1103,7 @@
         <v>26</v>
       </c>
       <c r="B14" t="n">
-        <v>0.053904985222196</v>
+        <v>0.0539186966139836</v>
       </c>
       <c r="C14" t="n">
         <v>0.0723347218529775</v>
@@ -1133,7 +1133,7 @@
         <v>0.0191059229787367</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0815636717645623</v>
+        <v>0.0818131194776077</v>
       </c>
       <c r="M14" t="n">
         <v>0.065479700894486</v>
@@ -1147,7 +1147,7 @@
         <v>27</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0508848025084718</v>
+        <v>0.0508992953124374</v>
       </c>
       <c r="C15" t="n">
         <v>0.0300745682045662</v>
@@ -1191,7 +1191,7 @@
         <v>28</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0426812718017225</v>
+        <v>0.042695078995228</v>
       </c>
       <c r="C16" t="n">
         <v>0.0396212827304794</v>
@@ -1221,7 +1221,7 @@
         <v>0.0140004385065891</v>
       </c>
       <c r="L16" t="n">
-        <v>0.00947009518910931</v>
+        <v>0.00948397951163939</v>
       </c>
       <c r="M16" t="n">
         <v>0.0117784484235133</v>
@@ -1235,7 +1235,7 @@
         <v>29</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0389085836518293</v>
+        <v>0.0389291469046823</v>
       </c>
       <c r="C17" t="n">
         <v>0.052131461543119</v>
@@ -1265,7 +1265,7 @@
         <v>0.015134695147502</v>
       </c>
       <c r="L17" t="n">
-        <v>0.057077199356117</v>
+        <v>0.0571120374959608</v>
       </c>
       <c r="M17" t="n">
         <v>0.0153129276800632</v>
@@ -1279,7 +1279,7 @@
         <v>30</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0302774685723039</v>
+        <v>0.0302860920786351</v>
       </c>
       <c r="C18" t="n">
         <v>0.00579531311053629</v>
@@ -1323,7 +1323,7 @@
         <v>31</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0297864561632142</v>
+        <v>0.0297938356166113</v>
       </c>
       <c r="C19" t="n">
         <v>0.0248181532865738</v>
@@ -1353,7 +1353,7 @@
         <v>0.0684270230244954</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0279671834712919</v>
+        <v>0.0279987225267749</v>
       </c>
       <c r="M19" t="n">
         <v>0.00350397068476503</v>
@@ -1367,7 +1367,7 @@
         <v>32</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0292440499139159</v>
+        <v>0.0292523790861179</v>
       </c>
       <c r="C20" t="n">
         <v>0.0186735004216984</v>
@@ -1411,7 +1411,7 @@
         <v>33</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0291682335035905</v>
+        <v>0.0291765410820688</v>
       </c>
       <c r="C21" t="n">
         <v>0.0149972644847297</v>
@@ -1455,7 +1455,7 @@
         <v>34</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0263225425057858</v>
+        <v>0.0263602206785098</v>
       </c>
       <c r="C22" t="n">
         <v>0.0266762594579811</v>
@@ -1485,7 +1485,7 @@
         <v>0.0112776981480921</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0144984311388211</v>
+        <v>0.0145849886052593</v>
       </c>
       <c r="M22" t="n">
         <v>0.00739317976590551</v>
@@ -1499,43 +1499,43 @@
         <v>35</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0211489546764277</v>
+        <v>0.020720803874429</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0224339874020708</v>
+        <v>0.0196837537441796</v>
       </c>
       <c r="D23" t="n">
-        <v>0.032429789172551</v>
+        <v>0.0182524677661447</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0354546001411635</v>
+        <v>0.0190783171773221</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0217770349278578</v>
+        <v>0.0088034747635748</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0395234109976004</v>
+        <v>0.0610540047534814</v>
       </c>
       <c r="I23" t="n">
-        <v>0.00390389155818829</v>
+        <v>0.0227761038083329</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0151668384924855</v>
+        <v>0.00615537143247198</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0640268258313086</v>
+        <v>0.0160384531819767</v>
       </c>
       <c r="L23" t="n">
-        <v>0.00635593220338983</v>
+        <v>0.0287909007211753</v>
       </c>
       <c r="M23" t="n">
-        <v>0.00461237333330672</v>
+        <v>0.0613354638950244</v>
       </c>
       <c r="N23" t="n">
-        <v>0.00485375235334099</v>
+        <v>0.0176125532277882</v>
       </c>
     </row>
     <row r="24">
@@ -1543,43 +1543,43 @@
         <v>36</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0206710416917634</v>
+        <v>0.0202796245140543</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0196837537441796</v>
+        <v>0.0224339874020708</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0182524677661447</v>
+        <v>0.032429789172551</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0190783171773221</v>
+        <v>0.0354546001411635</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0088034747635748</v>
+        <v>0.0217770349278578</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0610540047534814</v>
+        <v>0.0395234109976004</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0227761038083329</v>
+        <v>0.00390389155818829</v>
       </c>
       <c r="J24" t="n">
-        <v>0.00615537143247198</v>
+        <v>0.0151668384924855</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0160384531819767</v>
+        <v>0.0640268258313086</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0287215530093533</v>
+        <v>0.00427350427350427</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0613354638950244</v>
+        <v>0.00461237333330672</v>
       </c>
       <c r="N24" t="n">
-        <v>0.0176125532277882</v>
+        <v>0.00485375235334099</v>
       </c>
     </row>
     <row r="25">
@@ -1587,7 +1587,7 @@
         <v>37</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0172665357178672</v>
+        <v>0.0173330250156156</v>
       </c>
       <c r="C25" t="n">
         <v>0.0159333959100541</v>
@@ -1617,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0679638854232698</v>
+        <v>0.068041723121496</v>
       </c>
       <c r="M25" t="n">
         <v>0.0351131586094073</v>
@@ -1631,7 +1631,7 @@
         <v>38</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0170514284493974</v>
+        <v>0.0170562849683906</v>
       </c>
       <c r="C26" t="n">
         <v>0.0148942255458094</v>
@@ -1675,7 +1675,7 @@
         <v>39</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0168060007069874</v>
+        <v>0.0168462744348631</v>
       </c>
       <c r="C27" t="n">
         <v>0.0170285819206672</v>
@@ -1705,7 +1705,7 @@
         <v>0.00190950328187645</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0570453832903678</v>
+        <v>0.0571281230595419</v>
       </c>
       <c r="M27" t="n">
         <v>0.0054753809624018</v>
@@ -1719,7 +1719,7 @@
         <v>40</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0153104338317255</v>
+        <v>0.0153164453736903</v>
       </c>
       <c r="C28" t="n">
         <v>0.0230316571492459</v>
@@ -1749,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0.00947009518910931</v>
+        <v>0.00948397951163939</v>
       </c>
       <c r="M28" t="n">
         <v>0.00324257839634198</v>
@@ -1763,10 +1763,10 @@
         <v>41</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0119499894301224</v>
+        <v>0.0119642459635955</v>
       </c>
       <c r="C29" t="n">
-        <v>0.00839210229336857</v>
+        <v>0.00839210229336858</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -1793,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0.00803937066612635</v>
+        <v>0.00805580096232858</v>
       </c>
       <c r="M29" t="n">
         <v>0.0175438596491228</v>
@@ -1807,7 +1807,7 @@
         <v>42</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0111394500447714</v>
+        <v>0.0111426227379494</v>
       </c>
       <c r="C30" t="n">
         <v>0.0141395136350753</v>
@@ -1851,7 +1851,7 @@
         <v>43</v>
       </c>
       <c r="B31" t="n">
-        <v>0.00973543189207977</v>
+        <v>0.00973820469847729</v>
       </c>
       <c r="C31" t="n">
         <v>0.00347220409480199</v>
@@ -1895,7 +1895,7 @@
         <v>44</v>
       </c>
       <c r="B32" t="n">
-        <v>0.00925374376064771</v>
+        <v>0.00925328230690155</v>
       </c>
       <c r="C32" t="n">
         <v>0.012548586874119</v>
@@ -1925,7 +1925,7 @@
         <v>0.00483714311856488</v>
       </c>
       <c r="L32" t="n">
-        <v>0.0440910133115363</v>
+        <v>0.0441176856446852</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -1939,7 +1939,7 @@
         <v>45</v>
       </c>
       <c r="B33" t="n">
-        <v>0.00872289310468024</v>
+        <v>0.0087253775238692</v>
       </c>
       <c r="C33" t="n">
         <v>0.00433041499954171</v>
@@ -1983,7 +1983,7 @@
         <v>46</v>
       </c>
       <c r="B34" t="n">
-        <v>0.00845646421419752</v>
+        <v>0.00847087921126582</v>
       </c>
       <c r="C34" t="n">
         <v>0.00833620050423193</v>
@@ -2013,7 +2013,7 @@
         <v>0.00470165570848248</v>
       </c>
       <c r="L34" t="n">
-        <v>0.00211864406779661</v>
+        <v>0.00213675213675214</v>
       </c>
       <c r="M34" t="n">
         <v>0.0139488348836723</v>
@@ -2027,7 +2027,7 @@
         <v>47</v>
       </c>
       <c r="B35" t="n">
-        <v>0.00622609020063877</v>
+        <v>0.00622786349050728</v>
       </c>
       <c r="C35" t="n">
         <v>0.00733796390632559</v>
@@ -2071,7 +2071,7 @@
         <v>48</v>
       </c>
       <c r="B36" t="n">
-        <v>0.00535531189030506</v>
+        <v>0.00535683716861164</v>
       </c>
       <c r="C36" t="n">
         <v>0.00337426671767166</v>
@@ -2115,7 +2115,7 @@
         <v>49</v>
       </c>
       <c r="B37" t="n">
-        <v>0.00509618766941721</v>
+        <v>0.00509441459479364</v>
       </c>
       <c r="C37" t="n">
         <v>0.00771702933052079</v>
@@ -2145,7 +2145,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.0231780167100826</v>
+        <v>0.0233795998838649</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>50</v>
       </c>
       <c r="B38" t="n">
-        <v>0.00507939909296839</v>
+        <v>0.00509169877264681</v>
       </c>
       <c r="C38" t="n">
         <v>0.00611634972393195</v>
@@ -2189,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0.00803937066612635</v>
+        <v>0.00805580096232858</v>
       </c>
       <c r="M38" t="n">
         <v>0.00382357184868838</v>
@@ -2203,7 +2203,7 @@
         <v>51</v>
       </c>
       <c r="B39" t="n">
-        <v>0.00413263749085841</v>
+        <v>0.00413381453197999</v>
       </c>
       <c r="C39" t="n">
         <v>0.00743829228594512</v>
@@ -2247,7 +2247,7 @@
         <v>52</v>
       </c>
       <c r="B40" t="n">
-        <v>0.00201326242470783</v>
+        <v>0.00201383583398161</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -2291,7 +2291,7 @@
         <v>53</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0018695854399265</v>
+        <v>0.00187011792770167</v>
       </c>
       <c r="C41" t="n">
         <v>0.00348084472709146</v>
@@ -2335,7 +2335,7 @@
         <v>54</v>
       </c>
       <c r="B42" t="n">
-        <v>0.00183124899999241</v>
+        <v>0.00183177056893757</v>
       </c>
       <c r="C42" t="n">
         <v>0.000877871072625011</v>
@@ -2379,7 +2379,7 @@
         <v>55</v>
       </c>
       <c r="B43" t="n">
-        <v>0.00133677014634998</v>
+        <v>0.00133715087982487</v>
       </c>
       <c r="C43" t="n">
         <v>0.00190330638367756</v>
@@ -2423,7 +2423,7 @@
         <v>56</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0012301817505033</v>
+        <v>0.00123053212590171</v>
       </c>
       <c r="C44" t="n">
         <v>0.00304902942842725</v>
@@ -2467,7 +2467,7 @@
         <v>57</v>
       </c>
       <c r="B45" t="n">
-        <v>0.00106090334003337</v>
+        <v>0.0010612055022385</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -2511,7 +2511,7 @@
         <v>58</v>
       </c>
       <c r="B46" t="n">
-        <v>0.00106090334003337</v>
+        <v>0.0010612055022385</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>59</v>
       </c>
       <c r="B47" t="n">
-        <v>0.000883039039000151</v>
+        <v>0.000883290542613318</v>
       </c>
       <c r="C47" t="n">
         <v>0.00180424381609459</v>
@@ -2599,7 +2599,7 @@
         <v>60</v>
       </c>
       <c r="B48" t="n">
-        <v>0.000791880774404959</v>
+        <v>0.000792106314689323</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
